--- a/Code/Results/Cases/Case_3_213/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_213/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.96980448454417</v>
+        <v>0.3841813949771051</v>
       </c>
       <c r="C2">
-        <v>0.1650659280903</v>
+        <v>0.2733192036272456</v>
       </c>
       <c r="D2">
-        <v>0.08697131776986566</v>
+        <v>0.0392471790369413</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3804063492193066</v>
+        <v>0.6906807884823252</v>
       </c>
       <c r="G2">
-        <v>0.2807195700417822</v>
+        <v>0.5326446118630841</v>
       </c>
       <c r="H2">
-        <v>0.2710925078190414</v>
+        <v>0.6826976885089806</v>
       </c>
       <c r="I2">
-        <v>0.3117320370631376</v>
+        <v>0.7357532878019271</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8787254201243968</v>
+        <v>0.2678814174477679</v>
       </c>
       <c r="L2">
-        <v>0.2301578069217101</v>
+        <v>0.3110847836143478</v>
       </c>
       <c r="M2">
-        <v>0.2306309803192939</v>
+        <v>0.1510427188042094</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.110686980535903</v>
+        <v>2.400584438531723</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8442870325586966</v>
+        <v>0.3458251020513217</v>
       </c>
       <c r="C3">
-        <v>0.1655924931383694</v>
+        <v>0.2738270911889416</v>
       </c>
       <c r="D3">
-        <v>0.07774652071269372</v>
+        <v>0.03610526849424645</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3689089672744927</v>
+        <v>0.6931245927083722</v>
       </c>
       <c r="G3">
-        <v>0.2779554037829826</v>
+        <v>0.536538401606748</v>
       </c>
       <c r="H3">
-        <v>0.2751580558422546</v>
+        <v>0.6879135275748283</v>
       </c>
       <c r="I3">
-        <v>0.3195878624229067</v>
+        <v>0.7430658348067816</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7756974617576589</v>
+        <v>0.2343053385667133</v>
       </c>
       <c r="L3">
-        <v>0.2112609771508716</v>
+        <v>0.3079669980419126</v>
       </c>
       <c r="M3">
-        <v>0.2015762067623399</v>
+        <v>0.1430830947827531</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.113014538206983</v>
+        <v>2.41953041521424</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7672120575278711</v>
+        <v>0.3222815573456046</v>
       </c>
       <c r="C4">
-        <v>0.1659868360481411</v>
+        <v>0.2741813335233729</v>
       </c>
       <c r="D4">
-        <v>0.0720635649593433</v>
+        <v>0.0341599196603255</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3625963602789852</v>
+        <v>0.6950288778246829</v>
       </c>
       <c r="G4">
-        <v>0.2769360637110623</v>
+        <v>0.5392695018689437</v>
       </c>
       <c r="H4">
-        <v>0.2780889781430105</v>
+        <v>0.6913878795751955</v>
       </c>
       <c r="I4">
-        <v>0.3250446533266853</v>
+        <v>0.747913161965208</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7123178327966713</v>
+        <v>0.2135959185306149</v>
       </c>
       <c r="L4">
-        <v>0.1999320077654545</v>
+        <v>0.3062136218520664</v>
       </c>
       <c r="M4">
-        <v>0.1838129829777913</v>
+        <v>0.1382456080987176</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.116782513190785</v>
+        <v>2.432445811456205</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7357943662061643</v>
+        <v>0.3126899281033673</v>
       </c>
       <c r="C5">
-        <v>0.1661652904759165</v>
+        <v>0.2743363957167091</v>
       </c>
       <c r="D5">
-        <v>0.06974256840417326</v>
+        <v>0.03336313967248117</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3602041401778706</v>
+        <v>0.695906488880496</v>
       </c>
       <c r="G5">
-        <v>0.2766842198655723</v>
+        <v>0.5404680061278313</v>
       </c>
       <c r="H5">
-        <v>0.2793896571489114</v>
+        <v>0.692872121064859</v>
       </c>
       <c r="I5">
-        <v>0.3274228327434408</v>
+        <v>0.7499783879513053</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6864548018195364</v>
+        <v>0.2051336972745759</v>
       </c>
       <c r="L5">
-        <v>0.1953805450721759</v>
+        <v>0.3055396723092869</v>
       </c>
       <c r="M5">
-        <v>0.1765910816947631</v>
+        <v>0.1362869541615161</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.118885183533138</v>
+        <v>2.438031542693054</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7305767323076395</v>
+        <v>0.3110974204585375</v>
       </c>
       <c r="C6">
-        <v>0.1661959922515948</v>
+        <v>0.2743627915767419</v>
       </c>
       <c r="D6">
-        <v>0.069356846736504</v>
+        <v>0.03323059245759197</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3598175827446468</v>
+        <v>0.6960583538077003</v>
       </c>
       <c r="G6">
-        <v>0.2766520823629364</v>
+        <v>0.5406721840301785</v>
       </c>
       <c r="H6">
-        <v>0.2796119692040833</v>
+        <v>0.6931227122938992</v>
       </c>
       <c r="I6">
-        <v>0.3278269232077804</v>
+        <v>0.7503267478584021</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6821579882996076</v>
+        <v>0.2037271815389801</v>
       </c>
       <c r="L6">
-        <v>0.1946286112225408</v>
+        <v>0.3054302162484746</v>
       </c>
       <c r="M6">
-        <v>0.1753928322176499</v>
+        <v>0.1359624902843528</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.119267991256649</v>
+        <v>2.438978536723283</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.766788393419489</v>
+        <v>0.3221521899961033</v>
       </c>
       <c r="C7">
-        <v>0.1659891709827548</v>
+        <v>0.2741833813412811</v>
       </c>
       <c r="D7">
-        <v>0.07203228453164456</v>
+        <v>0.03414919028976016</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3625633780578852</v>
+        <v>0.6950403021348919</v>
       </c>
       <c r="G7">
-        <v>0.2769320139946529</v>
+        <v>0.53928531890827</v>
       </c>
       <c r="H7">
-        <v>0.2781060929981791</v>
+        <v>0.6914076194770828</v>
       </c>
       <c r="I7">
-        <v>0.3250761068908474</v>
+        <v>0.7479406502784585</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7119691844699219</v>
+        <v>0.2134818862880792</v>
       </c>
       <c r="L7">
-        <v>0.1998703659363699</v>
+        <v>0.3062043683629412</v>
       </c>
       <c r="M7">
-        <v>0.1837155212419681</v>
+        <v>0.1382191415431642</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.116808601043985</v>
+        <v>2.432519836230384</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.926522900906491</v>
+        <v>0.3709550235922734</v>
       </c>
       <c r="C8">
-        <v>0.1652326797585033</v>
+        <v>0.2734855501616025</v>
       </c>
       <c r="D8">
-        <v>0.08379428237114439</v>
+        <v>0.03816723427830482</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3762823876138768</v>
+        <v>0.691439646106879</v>
       </c>
       <c r="G8">
-        <v>0.2796215463950702</v>
+        <v>0.5339165542776954</v>
       </c>
       <c r="H8">
-        <v>0.2724022549685614</v>
+        <v>0.684439736874161</v>
       </c>
       <c r="I8">
-        <v>0.3143063713705097</v>
+        <v>0.7382004960451773</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8432230796204578</v>
+        <v>0.2563241349194527</v>
       </c>
       <c r="L8">
-        <v>0.223583107372292</v>
+        <v>0.3099764178443962</v>
       </c>
       <c r="M8">
-        <v>0.2205954691108936</v>
+        <v>0.1482880011207541</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.110991229789903</v>
+        <v>2.406850895758041</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.240073541905645</v>
+        <v>0.4666895690888566</v>
       </c>
       <c r="C9">
-        <v>0.1643180323158049</v>
+        <v>0.2724516023458179</v>
       </c>
       <c r="D9">
-        <v>0.1067294718922511</v>
+        <v>0.04591662803539265</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4094694526123206</v>
+        <v>0.68758031429536</v>
       </c>
       <c r="G9">
-        <v>0.2906003234393282</v>
+        <v>0.526089376998506</v>
       </c>
       <c r="H9">
-        <v>0.2648069599489418</v>
+        <v>0.6729294567964388</v>
       </c>
       <c r="I9">
-        <v>0.2984347993724299</v>
+        <v>0.7219344249526252</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.09991837545428</v>
+        <v>0.3395742586411927</v>
       </c>
       <c r="L9">
-        <v>0.2724306896028708</v>
+        <v>0.318647228780037</v>
       </c>
       <c r="M9">
-        <v>0.2936457199084543</v>
+        <v>0.1684222683381122</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.119128250691077</v>
+        <v>2.366686045423236</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.471189432832176</v>
+        <v>0.5370171503699055</v>
       </c>
       <c r="C10">
-        <v>0.1640008705394891</v>
+        <v>0.2718933808169766</v>
       </c>
       <c r="D10">
-        <v>0.1235312339517805</v>
+        <v>0.05152946395752167</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4382062476582789</v>
+        <v>0.6866944910370094</v>
       </c>
       <c r="G10">
-        <v>0.3026193082685964</v>
+        <v>0.521986940465446</v>
       </c>
       <c r="H10">
-        <v>0.2616206285088793</v>
+        <v>0.6657818757092855</v>
       </c>
       <c r="I10">
-        <v>0.2902966601827188</v>
+        <v>0.7117096645511864</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.288491511187544</v>
+        <v>0.4002502925899307</v>
       </c>
       <c r="L10">
-        <v>0.3100077377609551</v>
+        <v>0.3257909091854287</v>
       </c>
       <c r="M10">
-        <v>0.3479431348610333</v>
+        <v>0.1834463842349123</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.138460002271401</v>
+        <v>2.343373488960793</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.576626757662638</v>
+        <v>0.5690035443106751</v>
       </c>
       <c r="C11">
-        <v>0.1639356025602297</v>
+        <v>0.2716826476585723</v>
       </c>
       <c r="D11">
-        <v>0.1311714439517715</v>
+        <v>0.05406510643202012</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4523470796843867</v>
+        <v>0.6867144539479995</v>
       </c>
       <c r="G11">
-        <v>0.3090565071229392</v>
+        <v>0.5204788975432706</v>
       </c>
       <c r="H11">
-        <v>0.2607390008021824</v>
+        <v>0.6628136725102749</v>
       </c>
       <c r="I11">
-        <v>0.2874348032377902</v>
+        <v>0.707432512644413</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.374370323080171</v>
+        <v>0.4277430590670406</v>
       </c>
       <c r="L11">
-        <v>0.3275296879448604</v>
+        <v>0.3292080121311471</v>
       </c>
       <c r="M11">
-        <v>0.3728240046801261</v>
+        <v>0.1903303609719131</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.150490583385888</v>
+        <v>2.334112662912304</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.616607924226884</v>
+        <v>0.5811144772930845</v>
       </c>
       <c r="C12">
-        <v>0.1639224255370735</v>
+        <v>0.2716090182268331</v>
       </c>
       <c r="D12">
-        <v>0.1340647640043784</v>
+        <v>0.05502271324819219</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4578662106011748</v>
+        <v>0.6867827792101551</v>
       </c>
       <c r="G12">
-        <v>0.3116433643701626</v>
+        <v>0.5199593696078111</v>
       </c>
       <c r="H12">
-        <v>0.2604910750520943</v>
+        <v>0.6617303610301448</v>
       </c>
       <c r="I12">
-        <v>0.2864786048235537</v>
+        <v>0.705866641098023</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.406912423266363</v>
+        <v>0.4381376723429469</v>
       </c>
       <c r="L12">
-        <v>0.3342316052891903</v>
+        <v>0.3305259751929128</v>
       </c>
       <c r="M12">
-        <v>0.3822754588612085</v>
+        <v>0.1929441201496473</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.155541412666565</v>
+        <v>2.330799041320205</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.607994665036102</v>
+        <v>0.5785062553435694</v>
       </c>
       <c r="C13">
-        <v>0.1639247473074903</v>
+        <v>0.271624601867309</v>
       </c>
       <c r="D13">
-        <v>0.1334416201738406</v>
+        <v>0.0548165912276346</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.4566700827725327</v>
+        <v>0.6867653623919665</v>
       </c>
       <c r="G13">
-        <v>0.3110794392903529</v>
+        <v>0.5200689667366944</v>
       </c>
       <c r="H13">
-        <v>0.2605405778988796</v>
+        <v>0.6619618629769022</v>
       </c>
       <c r="I13">
-        <v>0.2866787567100708</v>
+        <v>0.706201487225421</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.39990280530003</v>
+        <v>0.4358997411803784</v>
       </c>
       <c r="L13">
-        <v>0.3327851733821205</v>
+        <v>0.3302410632137622</v>
       </c>
       <c r="M13">
-        <v>0.3802385420534691</v>
+        <v>0.1923808939659608</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.15443111414676</v>
+        <v>2.331504094700335</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.579914877694222</v>
+        <v>0.56999995488124</v>
       </c>
       <c r="C14">
-        <v>0.1639342861686188</v>
+        <v>0.2716764666922487</v>
       </c>
       <c r="D14">
-        <v>0.131409472977154</v>
+        <v>0.05414394141030243</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4527977855984631</v>
+        <v>0.6867188575677545</v>
       </c>
       <c r="G14">
-        <v>0.3092662805128796</v>
+        <v>0.5204351226574602</v>
       </c>
       <c r="H14">
-        <v>0.2607168563097204</v>
+        <v>0.662723732772335</v>
       </c>
       <c r="I14">
-        <v>0.2873535406686507</v>
+        <v>0.7073026094046604</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.377047100160269</v>
+        <v>0.4285985603774805</v>
       </c>
       <c r="L14">
-        <v>0.3280796903896572</v>
+        <v>0.3293159616759738</v>
       </c>
       <c r="M14">
-        <v>0.3736009665181399</v>
+        <v>0.1905452582180303</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.150896018970741</v>
+        <v>2.333836176431447</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.562722612397152</v>
+        <v>0.5647893666728692</v>
       </c>
       <c r="C15">
-        <v>0.1639416371302431</v>
+        <v>0.2717090377491758</v>
       </c>
       <c r="D15">
-        <v>0.1301647596433781</v>
+        <v>0.05373158584581006</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4504476166894875</v>
+        <v>0.6866982839847466</v>
       </c>
       <c r="G15">
-        <v>0.3081754028730117</v>
+        <v>0.5206661160062254</v>
       </c>
       <c r="H15">
-        <v>0.2608361533471353</v>
+        <v>0.6631956965965387</v>
       </c>
       <c r="I15">
-        <v>0.2877836782948364</v>
+        <v>0.7079840837298264</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.363050384197777</v>
+        <v>0.4241242351926644</v>
       </c>
       <c r="L15">
-        <v>0.3252062965102596</v>
+        <v>0.3287524304635951</v>
       </c>
       <c r="M15">
-        <v>0.369539227275105</v>
+        <v>0.1894217781752303</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.14879606069664</v>
+        <v>2.335289809814242</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.464305845122794</v>
+        <v>0.534926578980162</v>
       </c>
       <c r="C16">
-        <v>0.1640067406767969</v>
+        <v>0.2719080185021454</v>
       </c>
       <c r="D16">
-        <v>0.1230319158408406</v>
+        <v>0.05136339438710991</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4373045075047486</v>
+        <v>0.686701692493898</v>
       </c>
       <c r="G16">
-        <v>0.3022189587610171</v>
+        <v>0.5220927046128097</v>
       </c>
       <c r="H16">
-        <v>0.2616900309455161</v>
+        <v>0.6659815504819022</v>
       </c>
       <c r="I16">
-        <v>0.290501160891246</v>
+        <v>0.7119967144986532</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.282881718860011</v>
+        <v>0.3984513281669138</v>
       </c>
       <c r="L16">
-        <v>0.3088716858961789</v>
+        <v>0.3255709542250287</v>
       </c>
       <c r="M16">
-        <v>0.3463210522855462</v>
+        <v>0.1829974810375461</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.137741401577102</v>
+        <v>2.344005750693114</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.404015158180783</v>
+        <v>0.5166046536638476</v>
       </c>
       <c r="C17">
-        <v>0.1640670378768476</v>
+        <v>0.2720411223936878</v>
       </c>
       <c r="D17">
-        <v>0.1186557740065837</v>
+        <v>0.04990602872021555</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4295226666192633</v>
+        <v>0.6868120697912445</v>
       </c>
       <c r="G17">
-        <v>0.2988200228770523</v>
+        <v>0.5230596295700423</v>
       </c>
       <c r="H17">
-        <v>0.2623622576621401</v>
+        <v>0.6677630969367243</v>
       </c>
       <c r="I17">
-        <v>0.2923880987686367</v>
+        <v>0.7145541546704095</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.233730832405058</v>
+        <v>0.3826734572633939</v>
       </c>
       <c r="L17">
-        <v>0.2989641432005925</v>
+        <v>0.3236620328178361</v>
       </c>
       <c r="M17">
-        <v>0.3321262432346117</v>
+        <v>0.1790689283888156</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.131809258676356</v>
+        <v>2.349696946406482</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.369365231952145</v>
+        <v>0.5060658497737052</v>
       </c>
       <c r="C18">
-        <v>0.1641091447074885</v>
+        <v>0.272121749352209</v>
       </c>
       <c r="D18">
-        <v>0.1161384148765308</v>
+        <v>0.0490661305888267</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4251466379527571</v>
+        <v>0.6869153670243904</v>
       </c>
       <c r="G18">
-        <v>0.2969556988528126</v>
+        <v>0.5236494907256954</v>
       </c>
       <c r="H18">
-        <v>0.2628020831828763</v>
+        <v>0.668814460825196</v>
       </c>
       <c r="I18">
-        <v>0.2935520780650513</v>
+        <v>0.716060343218146</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.205469070101401</v>
+        <v>0.3735882142415505</v>
       </c>
       <c r="L18">
-        <v>0.2933055398059281</v>
+        <v>0.3225798344110586</v>
       </c>
       <c r="M18">
-        <v>0.3239785428583986</v>
+        <v>0.1768139911570898</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.128699999774355</v>
+        <v>2.35309689395109</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.35763779429152</v>
+        <v>0.5024975262632836</v>
       </c>
       <c r="C19">
-        <v>0.1641246715096472</v>
+        <v>0.272149748418812</v>
       </c>
       <c r="D19">
-        <v>0.115286008916712</v>
+        <v>0.04878147180981784</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.42368182884681</v>
+        <v>0.6869571808234127</v>
       </c>
       <c r="G19">
-        <v>0.2963397517003372</v>
+        <v>0.5238549966330055</v>
       </c>
       <c r="H19">
-        <v>0.2629600079379344</v>
+        <v>0.6691750159479142</v>
       </c>
       <c r="I19">
-        <v>0.2939594938057191</v>
+        <v>0.7165763615145906</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.195901357120789</v>
+        <v>0.3705103690543865</v>
       </c>
       <c r="L19">
-        <v>0.2913963425880581</v>
+        <v>0.3222161306956224</v>
       </c>
       <c r="M19">
-        <v>0.3212226464983914</v>
+        <v>0.1760513138389328</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.127698379154481</v>
+        <v>2.354269789233911</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.410430262555309</v>
+        <v>0.5185551129202111</v>
       </c>
       <c r="C20">
-        <v>0.164059849388245</v>
+        <v>0.2720265324252935</v>
       </c>
       <c r="D20">
-        <v>0.1191216506835531</v>
+        <v>0.05006133991366823</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4303406442013156</v>
+        <v>0.6867962000017371</v>
       </c>
       <c r="G20">
-        <v>0.2991723939784094</v>
+        <v>0.5229532095250349</v>
       </c>
       <c r="H20">
-        <v>0.2622851640708745</v>
+        <v>0.6675706888662631</v>
       </c>
       <c r="I20">
-        <v>0.292179042407831</v>
+        <v>0.7142782660710232</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.238962090426924</v>
+        <v>0.3843541016932761</v>
       </c>
       <c r="L20">
-        <v>0.3000146463827917</v>
+        <v>0.3238636100499974</v>
       </c>
       <c r="M20">
-        <v>0.3336355428723152</v>
+        <v>0.1794866481596671</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.132409201985297</v>
+        <v>2.349078014594866</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.58816102591652</v>
+        <v>0.5724985115525953</v>
       </c>
       <c r="C21">
-        <v>0.1639311697457373</v>
+        <v>0.2716610656001919</v>
       </c>
       <c r="D21">
-        <v>0.1320063554049682</v>
+        <v>0.05434158551412338</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4539306257477307</v>
+        <v>0.686730868408155</v>
       </c>
       <c r="G21">
-        <v>0.3097947182648966</v>
+        <v>0.5203261749038433</v>
       </c>
       <c r="H21">
-        <v>0.2606627117091804</v>
+        <v>0.6624988494344919</v>
       </c>
       <c r="I21">
-        <v>0.2871518239481254</v>
+        <v>0.7069777232676842</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.383759721557425</v>
+        <v>0.4307435414702638</v>
       </c>
       <c r="L21">
-        <v>0.3294599506982507</v>
+        <v>0.3295870363432982</v>
       </c>
       <c r="M21">
-        <v>0.3755497497457512</v>
+        <v>0.1910842416929981</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.151920679466869</v>
+        <v>2.333145942999025</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.704640728375864</v>
+        <v>0.6077438449165413</v>
       </c>
       <c r="C22">
-        <v>0.163914417218713</v>
+        <v>0.2714581598410319</v>
       </c>
       <c r="D22">
-        <v>0.1404283505601995</v>
+        <v>0.05712387918507034</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4703111467288039</v>
+        <v>0.6870423352611468</v>
       </c>
       <c r="G22">
-        <v>0.3176118116692379</v>
+        <v>0.5189096556575095</v>
       </c>
       <c r="H22">
-        <v>0.2601053655996637</v>
+        <v>0.6594212153138059</v>
       </c>
       <c r="I22">
-        <v>0.2846129503383352</v>
+        <v>0.7025199396501307</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.478523639754229</v>
+        <v>0.4609664236498645</v>
       </c>
       <c r="L22">
-        <v>0.3490957790774587</v>
+        <v>0.3334673587184795</v>
       </c>
       <c r="M22">
-        <v>0.4031175398359537</v>
+        <v>0.1987043545280329</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.167573509183683</v>
+        <v>2.32385981624229</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.642439997135142</v>
+        <v>0.5889338945977158</v>
       </c>
       <c r="C23">
-        <v>0.1639171341943069</v>
+        <v>0.2715631790482504</v>
       </c>
       <c r="D23">
-        <v>0.1359330757556023</v>
+        <v>0.05564031297160454</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4614767369312389</v>
+        <v>0.6868437105327629</v>
       </c>
       <c r="G23">
-        <v>0.3133562515035067</v>
+        <v>0.5196381824018275</v>
       </c>
       <c r="H23">
-        <v>0.2603553265265646</v>
+        <v>0.6610421280989272</v>
       </c>
       <c r="I23">
-        <v>0.2858973549808788</v>
+        <v>0.704870456213559</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.427931685686445</v>
+        <v>0.4448448259790894</v>
       </c>
       <c r="L23">
-        <v>0.3385781365751512</v>
+        <v>0.3313836028308259</v>
       </c>
       <c r="M23">
-        <v>0.3883868724155732</v>
+        <v>0.1946337123100079</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.158943580283605</v>
+        <v>2.328712943967417</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.407529957333622</v>
+        <v>0.5176733266955296</v>
       </c>
       <c r="C24">
-        <v>0.1640630761396622</v>
+        <v>0.2720331157653817</v>
       </c>
       <c r="D24">
-        <v>0.1189110324186373</v>
+        <v>0.04999113007148992</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4299705325396346</v>
+        <v>0.6868032506326642</v>
       </c>
       <c r="G24">
-        <v>0.299012808125191</v>
+        <v>0.5230012162374962</v>
       </c>
       <c r="H24">
-        <v>0.2623198522195977</v>
+        <v>0.6676575920459342</v>
       </c>
       <c r="I24">
-        <v>0.2922733107452373</v>
+        <v>0.7144028835364367</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.236597052540787</v>
+        <v>0.3835943269513393</v>
       </c>
       <c r="L24">
-        <v>0.2995395978689288</v>
+        <v>0.3237724294253042</v>
       </c>
       <c r="M24">
-        <v>0.3329531480222698</v>
+        <v>0.1792977857011948</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.132137031642685</v>
+        <v>2.349357434944395</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.155160694134452</v>
+        <v>0.4407903076588866</v>
       </c>
       <c r="C25">
-        <v>0.1645037798630753</v>
+        <v>0.2726957620866912</v>
       </c>
       <c r="D25">
-        <v>0.1005357641324025</v>
+        <v>0.04383427172848542</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.3997663419012838</v>
+        <v>0.688281833909258</v>
       </c>
       <c r="G25">
-        <v>0.2869720304884922</v>
+        <v>0.5279175101256257</v>
       </c>
       <c r="H25">
-        <v>0.2664568322954466</v>
+        <v>0.6758131305989252</v>
       </c>
       <c r="I25">
-        <v>0.3021342927804831</v>
+        <v>0.726031595646468</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.030509838975945</v>
+        <v>0.3171369478827444</v>
       </c>
       <c r="L25">
-        <v>0.2589390692418334</v>
+        <v>0.3161655144081976</v>
       </c>
       <c r="M25">
-        <v>0.2737874053914169</v>
+        <v>0.1629343454752714</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.114690728103398</v>
+        <v>2.376463192267977</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_213/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_213/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3841813949771051</v>
+        <v>0.9698044845441984</v>
       </c>
       <c r="C2">
-        <v>0.2733192036272456</v>
+        <v>0.1650659280905202</v>
       </c>
       <c r="D2">
-        <v>0.0392471790369413</v>
+        <v>0.08697131776973777</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6906807884823252</v>
+        <v>0.3804063492192782</v>
       </c>
       <c r="G2">
-        <v>0.5326446118630841</v>
+        <v>0.280719570041704</v>
       </c>
       <c r="H2">
-        <v>0.6826976885089806</v>
+        <v>0.2710925078190414</v>
       </c>
       <c r="I2">
-        <v>0.7357532878019271</v>
+        <v>0.3117320370631269</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2678814174477679</v>
+        <v>0.8787254201243684</v>
       </c>
       <c r="L2">
-        <v>0.3110847836143478</v>
+        <v>0.2301578069217385</v>
       </c>
       <c r="M2">
-        <v>0.1510427188042094</v>
+        <v>0.2306309803192974</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.400584438531723</v>
+        <v>1.110686980535831</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3458251020513217</v>
+        <v>0.8442870325585545</v>
       </c>
       <c r="C3">
-        <v>0.2738270911889416</v>
+        <v>0.165592493138135</v>
       </c>
       <c r="D3">
-        <v>0.03610526849424645</v>
+        <v>0.07774652071265109</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6931245927083722</v>
+        <v>0.3689089672745212</v>
       </c>
       <c r="G3">
-        <v>0.536538401606748</v>
+        <v>0.2779554037830252</v>
       </c>
       <c r="H3">
-        <v>0.6879135275748283</v>
+        <v>0.2751580558422546</v>
       </c>
       <c r="I3">
-        <v>0.7430658348067816</v>
+        <v>0.319587862422928</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2343053385667133</v>
+        <v>0.7756974617577015</v>
       </c>
       <c r="L3">
-        <v>0.3079669980419126</v>
+        <v>0.2112609771509639</v>
       </c>
       <c r="M3">
-        <v>0.1430830947827531</v>
+        <v>0.2015762067623434</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.41953041521424</v>
+        <v>1.11301453820704</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3222815573456046</v>
+        <v>0.7672120575278427</v>
       </c>
       <c r="C4">
-        <v>0.2741813335233729</v>
+        <v>0.1659868360481482</v>
       </c>
       <c r="D4">
-        <v>0.0341599196603255</v>
+        <v>0.07206356495932198</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6950288778246829</v>
+        <v>0.3625963602789781</v>
       </c>
       <c r="G4">
-        <v>0.5392695018689437</v>
+        <v>0.2769360637110694</v>
       </c>
       <c r="H4">
-        <v>0.6913878795751955</v>
+        <v>0.2780889781431313</v>
       </c>
       <c r="I4">
-        <v>0.747913161965208</v>
+        <v>0.3250446533267031</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2135959185306149</v>
+        <v>0.7123178327966855</v>
       </c>
       <c r="L4">
-        <v>0.3062136218520664</v>
+        <v>0.1999320077654687</v>
       </c>
       <c r="M4">
-        <v>0.1382456080987176</v>
+        <v>0.1838129829777877</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.432445811456205</v>
+        <v>1.11678251319077</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3126899281033673</v>
+        <v>0.7357943662059085</v>
       </c>
       <c r="C5">
-        <v>0.2743363957167091</v>
+        <v>0.1661652904759734</v>
       </c>
       <c r="D5">
-        <v>0.03336313967248117</v>
+        <v>0.06974256840393878</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.695906488880496</v>
+        <v>0.3602041401778706</v>
       </c>
       <c r="G5">
-        <v>0.5404680061278313</v>
+        <v>0.2766842198655723</v>
       </c>
       <c r="H5">
-        <v>0.692872121064859</v>
+        <v>0.2793896571489114</v>
       </c>
       <c r="I5">
-        <v>0.7499783879513053</v>
+        <v>0.3274228327434443</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2051336972745759</v>
+        <v>0.6864548018195507</v>
       </c>
       <c r="L5">
-        <v>0.3055396723092869</v>
+        <v>0.1953805450720836</v>
       </c>
       <c r="M5">
-        <v>0.1362869541615161</v>
+        <v>0.1765910816947454</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.438031542693054</v>
+        <v>1.118885183533152</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3110974204585375</v>
+        <v>0.7305767323078669</v>
       </c>
       <c r="C6">
-        <v>0.2743627915767419</v>
+        <v>0.1661959922517795</v>
       </c>
       <c r="D6">
-        <v>0.03323059245759197</v>
+        <v>0.06935684673629083</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6960583538077003</v>
+        <v>0.359817582744661</v>
       </c>
       <c r="G6">
-        <v>0.5406721840301785</v>
+        <v>0.2766520823629364</v>
       </c>
       <c r="H6">
-        <v>0.6931227122938992</v>
+        <v>0.2796119692041898</v>
       </c>
       <c r="I6">
-        <v>0.7503267478584021</v>
+        <v>0.3278269232077768</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2037271815389801</v>
+        <v>0.6821579882995508</v>
       </c>
       <c r="L6">
-        <v>0.3054302162484746</v>
+        <v>0.1946286112226048</v>
       </c>
       <c r="M6">
-        <v>0.1359624902843528</v>
+        <v>0.1753928322176428</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.438978536723283</v>
+        <v>1.119267991256592</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3221521899961033</v>
+        <v>0.7667883934195743</v>
       </c>
       <c r="C7">
-        <v>0.2741833813412811</v>
+        <v>0.1659891709832877</v>
       </c>
       <c r="D7">
-        <v>0.03414919028976016</v>
+        <v>0.07203228453168009</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6950403021348919</v>
+        <v>0.3625633780578852</v>
       </c>
       <c r="G7">
-        <v>0.53928531890827</v>
+        <v>0.2769320139947169</v>
       </c>
       <c r="H7">
-        <v>0.6914076194770828</v>
+        <v>0.2781060929981791</v>
       </c>
       <c r="I7">
-        <v>0.7479406502784585</v>
+        <v>0.3250761068908474</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2134818862880792</v>
+        <v>0.7119691844698366</v>
       </c>
       <c r="L7">
-        <v>0.3062043683629412</v>
+        <v>0.1998703659363485</v>
       </c>
       <c r="M7">
-        <v>0.1382191415431642</v>
+        <v>0.1837155212419788</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.432519836230384</v>
+        <v>1.116808601043928</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3709550235922734</v>
+        <v>0.926522900906491</v>
       </c>
       <c r="C8">
-        <v>0.2734855501616025</v>
+        <v>0.165232679758752</v>
       </c>
       <c r="D8">
-        <v>0.03816723427830482</v>
+        <v>0.08379428237125808</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.691439646106879</v>
+        <v>0.3762823876138768</v>
       </c>
       <c r="G8">
-        <v>0.5339165542776954</v>
+        <v>0.2796215463950205</v>
       </c>
       <c r="H8">
-        <v>0.684439736874161</v>
+        <v>0.2724022549685614</v>
       </c>
       <c r="I8">
-        <v>0.7382004960451773</v>
+        <v>0.3143063713705132</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2563241349194527</v>
+        <v>0.843223079620401</v>
       </c>
       <c r="L8">
-        <v>0.3099764178443962</v>
+        <v>0.2235831073722778</v>
       </c>
       <c r="M8">
-        <v>0.1482880011207541</v>
+        <v>0.2205954691109007</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.406850895758041</v>
+        <v>1.110991229789832</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4666895690888566</v>
+        <v>1.240073541905673</v>
       </c>
       <c r="C9">
-        <v>0.2724516023458179</v>
+        <v>0.1643180323158191</v>
       </c>
       <c r="D9">
-        <v>0.04591662803539265</v>
+        <v>0.1067294718923577</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.68758031429536</v>
+        <v>0.4094694526123419</v>
       </c>
       <c r="G9">
-        <v>0.526089376998506</v>
+        <v>0.2906003234393992</v>
       </c>
       <c r="H9">
-        <v>0.6729294567964388</v>
+        <v>0.2648069599489418</v>
       </c>
       <c r="I9">
-        <v>0.7219344249526252</v>
+        <v>0.2984347993724299</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3395742586411927</v>
+        <v>1.099918375454223</v>
       </c>
       <c r="L9">
-        <v>0.318647228780037</v>
+        <v>0.2724306896027571</v>
       </c>
       <c r="M9">
-        <v>0.1684222683381122</v>
+        <v>0.2936457199084472</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.366686045423236</v>
+        <v>1.119128250691134</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5370171503699055</v>
+        <v>1.471189432832091</v>
       </c>
       <c r="C10">
-        <v>0.2718933808169766</v>
+        <v>0.1640008705390912</v>
       </c>
       <c r="D10">
-        <v>0.05152946395752167</v>
+        <v>0.1235312339517662</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6866944910370094</v>
+        <v>0.4382062476582718</v>
       </c>
       <c r="G10">
-        <v>0.521986940465446</v>
+        <v>0.3026193082685964</v>
       </c>
       <c r="H10">
-        <v>0.6657818757092855</v>
+        <v>0.2616206285087728</v>
       </c>
       <c r="I10">
-        <v>0.7117096645511864</v>
+        <v>0.2902966601827224</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4002502925899307</v>
+        <v>1.288491511187431</v>
       </c>
       <c r="L10">
-        <v>0.3257909091854287</v>
+        <v>0.310007737761012</v>
       </c>
       <c r="M10">
-        <v>0.1834463842349123</v>
+        <v>0.3479431348610333</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.343373488960793</v>
+        <v>1.138460002271444</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5690035443106751</v>
+        <v>1.576626757662524</v>
       </c>
       <c r="C11">
-        <v>0.2716826476585723</v>
+        <v>0.1639356025601444</v>
       </c>
       <c r="D11">
-        <v>0.05406510643202012</v>
+        <v>0.1311714439518852</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6867144539479995</v>
+        <v>0.4523470796843938</v>
       </c>
       <c r="G11">
-        <v>0.5204788975432706</v>
+        <v>0.3090565071230174</v>
       </c>
       <c r="H11">
-        <v>0.6628136725102749</v>
+        <v>0.2607390008021895</v>
       </c>
       <c r="I11">
-        <v>0.707432512644413</v>
+        <v>0.2874348032377796</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4277430590670406</v>
+        <v>1.374370323080285</v>
       </c>
       <c r="L11">
-        <v>0.3292080121311471</v>
+        <v>0.3275296879448746</v>
       </c>
       <c r="M11">
-        <v>0.1903303609719131</v>
+        <v>0.3728240046801261</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.334112662912304</v>
+        <v>1.150490583385903</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5811144772930845</v>
+        <v>1.616607924227139</v>
       </c>
       <c r="C12">
-        <v>0.2716090182268331</v>
+        <v>0.1639224255370522</v>
       </c>
       <c r="D12">
-        <v>0.05502271324819219</v>
+        <v>0.134064764004421</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6867827792101551</v>
+        <v>0.4578662106011748</v>
       </c>
       <c r="G12">
-        <v>0.5199593696078111</v>
+        <v>0.3116433643701484</v>
       </c>
       <c r="H12">
-        <v>0.6617303610301448</v>
+        <v>0.2604910750520943</v>
       </c>
       <c r="I12">
-        <v>0.705866641098023</v>
+        <v>0.2864786048235644</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4381376723429469</v>
+        <v>1.40691242326659</v>
       </c>
       <c r="L12">
-        <v>0.3305259751929128</v>
+        <v>0.3342316052892045</v>
       </c>
       <c r="M12">
-        <v>0.1929441201496473</v>
+        <v>0.3822754588612227</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.330799041320205</v>
+        <v>1.155541412666608</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5785062553435694</v>
+        <v>1.607994665036102</v>
       </c>
       <c r="C13">
-        <v>0.271624601867309</v>
+        <v>0.1639247473072558</v>
       </c>
       <c r="D13">
-        <v>0.0548165912276346</v>
+        <v>0.1334416201739401</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6867653623919665</v>
+        <v>0.4566700827725398</v>
       </c>
       <c r="G13">
-        <v>0.5200689667366944</v>
+        <v>0.31107943929036</v>
       </c>
       <c r="H13">
-        <v>0.6619618629769022</v>
+        <v>0.2605405778988867</v>
       </c>
       <c r="I13">
-        <v>0.706201487225421</v>
+        <v>0.286678756710085</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4358997411803784</v>
+        <v>1.399902805300115</v>
       </c>
       <c r="L13">
-        <v>0.3302410632137622</v>
+        <v>0.3327851733821916</v>
       </c>
       <c r="M13">
-        <v>0.1923808939659608</v>
+        <v>0.3802385420534691</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.331504094700335</v>
+        <v>1.154431114146817</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.56999995488124</v>
+        <v>1.579914877694108</v>
       </c>
       <c r="C14">
-        <v>0.2716764666922487</v>
+        <v>0.1639342861683915</v>
       </c>
       <c r="D14">
-        <v>0.05414394141030243</v>
+        <v>0.1314094729772251</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6867188575677545</v>
+        <v>0.4527977855984489</v>
       </c>
       <c r="G14">
-        <v>0.5204351226574602</v>
+        <v>0.3092662805128583</v>
       </c>
       <c r="H14">
-        <v>0.662723732772335</v>
+        <v>0.2607168563095996</v>
       </c>
       <c r="I14">
-        <v>0.7073026094046604</v>
+        <v>0.2873535406686258</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4285985603774805</v>
+        <v>1.377047100160382</v>
       </c>
       <c r="L14">
-        <v>0.3293159616759738</v>
+        <v>0.3280796903896572</v>
       </c>
       <c r="M14">
-        <v>0.1905452582180303</v>
+        <v>0.3736009665181186</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.333836176431447</v>
+        <v>1.150896018970712</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5647893666728692</v>
+        <v>1.562722612397096</v>
       </c>
       <c r="C15">
-        <v>0.2717090377491758</v>
+        <v>0.1639416371302573</v>
       </c>
       <c r="D15">
-        <v>0.05373158584581006</v>
+        <v>0.1301647596435913</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6866982839847466</v>
+        <v>0.4504476166894804</v>
       </c>
       <c r="G15">
-        <v>0.5206661160062254</v>
+        <v>0.3081754028729833</v>
       </c>
       <c r="H15">
-        <v>0.6631956965965387</v>
+        <v>0.2608361533471282</v>
       </c>
       <c r="I15">
-        <v>0.7079840837298264</v>
+        <v>0.2877836782948506</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4241242351926644</v>
+        <v>1.363050384197805</v>
       </c>
       <c r="L15">
-        <v>0.3287524304635951</v>
+        <v>0.3252062965103164</v>
       </c>
       <c r="M15">
-        <v>0.1894217781752303</v>
+        <v>0.3695392272751121</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.335289809814242</v>
+        <v>1.148796060696625</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.534926578980162</v>
+        <v>1.464305845122965</v>
       </c>
       <c r="C16">
-        <v>0.2719080185021454</v>
+        <v>0.1640067406765482</v>
       </c>
       <c r="D16">
-        <v>0.05136339438710991</v>
+        <v>0.1230319158408406</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.686701692493898</v>
+        <v>0.4373045075047486</v>
       </c>
       <c r="G16">
-        <v>0.5220927046128097</v>
+        <v>0.3022189587610242</v>
       </c>
       <c r="H16">
-        <v>0.6659815504819022</v>
+        <v>0.2616900309455161</v>
       </c>
       <c r="I16">
-        <v>0.7119967144986532</v>
+        <v>0.2905011608912282</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3984513281669138</v>
+        <v>1.282881718860068</v>
       </c>
       <c r="L16">
-        <v>0.3255709542250287</v>
+        <v>0.3088716858961789</v>
       </c>
       <c r="M16">
-        <v>0.1829974810375461</v>
+        <v>0.3463210522855533</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.344005750693114</v>
+        <v>1.137741401577088</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5166046536638476</v>
+        <v>1.40401515818084</v>
       </c>
       <c r="C17">
-        <v>0.2720411223936878</v>
+        <v>0.164067037877146</v>
       </c>
       <c r="D17">
-        <v>0.04990602872021555</v>
+        <v>0.118655774006541</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6868120697912445</v>
+        <v>0.4295226666192633</v>
       </c>
       <c r="G17">
-        <v>0.5230596295700423</v>
+        <v>0.2988200228771163</v>
       </c>
       <c r="H17">
-        <v>0.6677630969367243</v>
+        <v>0.2623622576621472</v>
       </c>
       <c r="I17">
-        <v>0.7145541546704095</v>
+        <v>0.2923880987686331</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3826734572633939</v>
+        <v>1.233730832405087</v>
       </c>
       <c r="L17">
-        <v>0.3236620328178361</v>
+        <v>0.2989641432006209</v>
       </c>
       <c r="M17">
-        <v>0.1790689283888156</v>
+        <v>0.3321262432346117</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.349696946406482</v>
+        <v>1.131809258676398</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5060658497737052</v>
+        <v>1.369365231952258</v>
       </c>
       <c r="C18">
-        <v>0.272121749352209</v>
+        <v>0.164109144707794</v>
       </c>
       <c r="D18">
-        <v>0.0490661305888267</v>
+        <v>0.116138414876616</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6869153670243904</v>
+        <v>0.4251466379527642</v>
       </c>
       <c r="G18">
-        <v>0.5236494907256954</v>
+        <v>0.2969556988528765</v>
       </c>
       <c r="H18">
-        <v>0.668814460825196</v>
+        <v>0.2628020831828763</v>
       </c>
       <c r="I18">
-        <v>0.716060343218146</v>
+        <v>0.2935520780650585</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3735882142415505</v>
+        <v>1.205469070101486</v>
       </c>
       <c r="L18">
-        <v>0.3225798344110586</v>
+        <v>0.2933055398059139</v>
       </c>
       <c r="M18">
-        <v>0.1768139911570898</v>
+        <v>0.3239785428583843</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.35309689395109</v>
+        <v>1.128699999774369</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5024975262632836</v>
+        <v>1.357637794291634</v>
       </c>
       <c r="C19">
-        <v>0.272149748418812</v>
+        <v>0.1641246715097182</v>
       </c>
       <c r="D19">
-        <v>0.04878147180981784</v>
+        <v>0.1152860089168399</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6869571808234127</v>
+        <v>0.4236818288468527</v>
       </c>
       <c r="G19">
-        <v>0.5238549966330055</v>
+        <v>0.2963397517002875</v>
       </c>
       <c r="H19">
-        <v>0.6691750159479142</v>
+        <v>0.2629600079379273</v>
       </c>
       <c r="I19">
-        <v>0.7165763615145906</v>
+        <v>0.2939594938057297</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3705103690543865</v>
+        <v>1.195901357120817</v>
       </c>
       <c r="L19">
-        <v>0.3222161306956224</v>
+        <v>0.2913963425880155</v>
       </c>
       <c r="M19">
-        <v>0.1760513138389328</v>
+        <v>0.3212226464984056</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.354269789233911</v>
+        <v>1.127698379154467</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5185551129202111</v>
+        <v>1.410430262555195</v>
       </c>
       <c r="C20">
-        <v>0.2720265324252935</v>
+        <v>0.1640598493884937</v>
       </c>
       <c r="D20">
-        <v>0.05006133991366823</v>
+        <v>0.1191216506838231</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6867962000017371</v>
+        <v>0.4303406442013369</v>
       </c>
       <c r="G20">
-        <v>0.5229532095250349</v>
+        <v>0.2991723939784237</v>
       </c>
       <c r="H20">
-        <v>0.6675706888662631</v>
+        <v>0.2622851640708888</v>
       </c>
       <c r="I20">
-        <v>0.7142782660710232</v>
+        <v>0.2921790424078559</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3843541016932761</v>
+        <v>1.238962090426895</v>
       </c>
       <c r="L20">
-        <v>0.3238636100499974</v>
+        <v>0.3000146463829338</v>
       </c>
       <c r="M20">
-        <v>0.1794866481596671</v>
+        <v>0.3336355428723223</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.349078014594866</v>
+        <v>1.132409201985311</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5724985115525953</v>
+        <v>1.588161025916548</v>
       </c>
       <c r="C21">
-        <v>0.2716610656001919</v>
+        <v>0.1639311697457515</v>
       </c>
       <c r="D21">
-        <v>0.05434158551412338</v>
+        <v>0.1320063554049824</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.686730868408155</v>
+        <v>0.4539306257477307</v>
       </c>
       <c r="G21">
-        <v>0.5203261749038433</v>
+        <v>0.3097947182648966</v>
       </c>
       <c r="H21">
-        <v>0.6624988494344919</v>
+        <v>0.2606627117091733</v>
       </c>
       <c r="I21">
-        <v>0.7069777232676842</v>
+        <v>0.2871518239481432</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4307435414702638</v>
+        <v>1.383759721557425</v>
       </c>
       <c r="L21">
-        <v>0.3295870363432982</v>
+        <v>0.329459950698336</v>
       </c>
       <c r="M21">
-        <v>0.1910842416929981</v>
+        <v>0.375549749745737</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.333145942999025</v>
+        <v>1.151920679466883</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6077438449165413</v>
+        <v>1.704640728375864</v>
       </c>
       <c r="C22">
-        <v>0.2714581598410319</v>
+        <v>0.1639144172184146</v>
       </c>
       <c r="D22">
-        <v>0.05712387918507034</v>
+        <v>0.1404283505602422</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6870423352611468</v>
+        <v>0.4703111467288181</v>
       </c>
       <c r="G22">
-        <v>0.5189096556575095</v>
+        <v>0.3176118116691882</v>
       </c>
       <c r="H22">
-        <v>0.6594212153138059</v>
+        <v>0.2601053655997845</v>
       </c>
       <c r="I22">
-        <v>0.7025199396501307</v>
+        <v>0.2846129503383494</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4609664236498645</v>
+        <v>1.478523639754229</v>
       </c>
       <c r="L22">
-        <v>0.3334673587184795</v>
+        <v>0.3490957790775013</v>
       </c>
       <c r="M22">
-        <v>0.1987043545280329</v>
+        <v>0.4031175398359608</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.32385981624229</v>
+        <v>1.167573509183683</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5889338945977158</v>
+        <v>1.642439997135284</v>
       </c>
       <c r="C23">
-        <v>0.2715631790482504</v>
+        <v>0.1639171341942145</v>
       </c>
       <c r="D23">
-        <v>0.05564031297160454</v>
+        <v>0.1359330757556023</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6868437105327629</v>
+        <v>0.4614767369312389</v>
       </c>
       <c r="G23">
-        <v>0.5196381824018275</v>
+        <v>0.3133562515034569</v>
       </c>
       <c r="H23">
-        <v>0.6610421280989272</v>
+        <v>0.2603553265264509</v>
       </c>
       <c r="I23">
-        <v>0.704870456213559</v>
+        <v>0.2858973549808645</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4448448259790894</v>
+        <v>1.427931685686559</v>
       </c>
       <c r="L23">
-        <v>0.3313836028308259</v>
+        <v>0.3385781365751939</v>
       </c>
       <c r="M23">
-        <v>0.1946337123100079</v>
+        <v>0.3883868724155732</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.328712943967417</v>
+        <v>1.158943580283676</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5176733266955296</v>
+        <v>1.40752995733348</v>
       </c>
       <c r="C24">
-        <v>0.2720331157653817</v>
+        <v>0.1640630761399038</v>
       </c>
       <c r="D24">
-        <v>0.04999113007148992</v>
+        <v>0.1189110324183957</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6868032506326642</v>
+        <v>0.4299705325396275</v>
       </c>
       <c r="G24">
-        <v>0.5230012162374962</v>
+        <v>0.2990128081251342</v>
       </c>
       <c r="H24">
-        <v>0.6676575920459342</v>
+        <v>0.2623198522195977</v>
       </c>
       <c r="I24">
-        <v>0.7144028835364367</v>
+        <v>0.2922733107452515</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3835943269513393</v>
+        <v>1.236597052540731</v>
       </c>
       <c r="L24">
-        <v>0.3237724294253042</v>
+        <v>0.2995395978690709</v>
       </c>
       <c r="M24">
-        <v>0.1792977857011948</v>
+        <v>0.332953148022284</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.349357434944395</v>
+        <v>1.132137031642728</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4407903076588866</v>
+        <v>1.155160694134651</v>
       </c>
       <c r="C25">
-        <v>0.2726957620866912</v>
+        <v>0.1645037798635371</v>
       </c>
       <c r="D25">
-        <v>0.04383427172848542</v>
+        <v>0.1005357641324807</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.688281833909258</v>
+        <v>0.3997663419012483</v>
       </c>
       <c r="G25">
-        <v>0.5279175101256257</v>
+        <v>0.286972030488549</v>
       </c>
       <c r="H25">
-        <v>0.6758131305989252</v>
+        <v>0.2664568322954395</v>
       </c>
       <c r="I25">
-        <v>0.726031595646468</v>
+        <v>0.302134292780476</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3171369478827444</v>
+        <v>1.030509838975917</v>
       </c>
       <c r="L25">
-        <v>0.3161655144081976</v>
+        <v>0.258939069241805</v>
       </c>
       <c r="M25">
-        <v>0.1629343454752714</v>
+        <v>0.273787405391424</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.376463192267977</v>
+        <v>1.114690728103369</v>
       </c>
     </row>
   </sheetData>
